--- a/Aakhar_list.xlsx
+++ b/Aakhar_list.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Common Words" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Sentences" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Relations" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Letters" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Numbers" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="622">
   <si>
     <t xml:space="preserve">Hindi</t>
   </si>
@@ -224,7 +223,7 @@
     <t xml:space="preserve">Foul Smell</t>
   </si>
   <si>
-    <t xml:space="preserve">सेंडयान</t>
+    <t xml:space="preserve">सड्याण</t>
   </si>
   <si>
     <t xml:space="preserve">बदबू</t>
@@ -278,7 +277,7 @@
     <t xml:space="preserve">नादरी गाड</t>
   </si>
   <si>
-    <t xml:space="preserve">पहाड़ की छोटी</t>
+    <t xml:space="preserve">पहाड़ की चोटी</t>
   </si>
   <si>
     <t xml:space="preserve">Hill Peak</t>
@@ -413,7 +412,7 @@
     <t xml:space="preserve">Fields</t>
   </si>
   <si>
-    <t xml:space="preserve">पुंग डा</t>
+    <t xml:space="preserve">पुंगडा</t>
   </si>
   <si>
     <t xml:space="preserve">डोखरो</t>
@@ -803,7 +802,7 @@
     <t xml:space="preserve">Headache</t>
   </si>
   <si>
-    <t xml:space="preserve">मुडारू</t>
+    <t xml:space="preserve">मुंडारू</t>
   </si>
   <si>
     <t xml:space="preserve">मुनाव पीड़</t>
@@ -962,7 +961,7 @@
     <t xml:space="preserve">Guests</t>
   </si>
   <si>
-    <t xml:space="preserve">पौना</t>
+    <t xml:space="preserve">पौणा </t>
   </si>
   <si>
     <t xml:space="preserve">मेहमान / पौड़</t>
@@ -1001,7 +1000,7 @@
     <t xml:space="preserve">Scratch</t>
   </si>
   <si>
-    <t xml:space="preserve">चरोड़ा</t>
+    <t xml:space="preserve">चिरौटा</t>
   </si>
   <si>
     <t xml:space="preserve">उचेड़ना</t>
@@ -1890,618 +1889,6 @@
   </si>
   <si>
     <t xml:space="preserve">अक्ल </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> यक </t>
-  </si>
-  <si>
-    <t xml:space="preserve">दो</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> द्वी </t>
-  </si>
-  <si>
-    <t xml:space="preserve">तीन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चार</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पाँच</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छः</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सात</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">आठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नौ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">दस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ग्यारह</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">गयार </t>
-  </si>
-  <si>
-    <t xml:space="preserve">बारह</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twelve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तेरह</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चौदह</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fourteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पंद्रह</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सोलह</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सत्रह</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventeen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अठारह</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उन्नीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nineteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इक्कीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाईस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तेईस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चौबीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty Four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पच्चीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छब्बीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सत्ताईस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty Seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अट्ठाईस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty Eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उनतीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenty Nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इकतीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बत्तीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तैंतीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चौंतीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty Four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पैंतीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छत्तीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सैंतीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty Seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अड़तीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty Eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उनतालीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirty Nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चालीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इकतालीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बयालीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तैंतालीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चवालीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty Four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पैंतालीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छयालिस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सैंतालीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty Seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अड़तालीस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty Eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उनचास</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forty Nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पचास</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इक्यावन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बावन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तिरपन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चव्वन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty Four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पचपन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छप्पन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सतावन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty Seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अट्ठावन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty Eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उनसठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifty Nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">साठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इकसठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बासठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तिरसठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चौंसठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty Four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पैंसठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छियासठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सड़सठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty Seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अड़सठ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty Eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उनहत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixty Nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इकहत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बहत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तिहत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चौहत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy Four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पचहत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छिहत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सतहत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy Seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अठहत्तर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy Eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उनासी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventy Nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अस्सी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इक्यासी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बयासी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तिरासी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चौरासी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty Four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पचासी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छियासी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सतासी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty Seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अट्ठासी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty Eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उननब्बे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighty Nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नब्बे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इक्यानवे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बानवे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तिरानवे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">चौरानवे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety Four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पिचानवे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety Five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छियानवे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सतान्वे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety Seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अट्ठानवे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety Eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">निन्यानवे</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninety Nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सौ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One Hundred</t>
   </si>
 </sst>
 </file>
@@ -2549,6 +1936,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2567,14 +1961,6 @@
       <i val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -2627,44 +2013,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2859,8 +2245,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3155,7 +2541,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3790,7 +3176,7 @@
       <c r="B55" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3977,7 +3363,7 @@
       <c r="B66" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>312</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -4028,7 +3414,7 @@
       <c r="B69" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>325</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -5042,13 +4428,13 @@
   </sheetPr>
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="27.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5358,2947 +4744,2947 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="3"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="3"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="3"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="3"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="3"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="3"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="3"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="3"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="3"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="3"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="3"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="3"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="3"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="3"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="3"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="3"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="3"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="3"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="3"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="3"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="3"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="3"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="3"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="3"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="3"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="3"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="3"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="3"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="3"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="3"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="3"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="3"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="3"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="3"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="3"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="3"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="3"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="3"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="3"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="3"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="3"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="3"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="3"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="3"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="3"/>
+      <c r="B100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="3"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="3"/>
+      <c r="B102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="3"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="3"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="3"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="3"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="3"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="3"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="3"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="3"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="3"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="3"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="3"/>
+      <c r="B113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="3"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="3"/>
+      <c r="B115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="3"/>
+      <c r="B116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="3"/>
+      <c r="B117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="3"/>
+      <c r="B118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="3"/>
+      <c r="B119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="3"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="3"/>
+      <c r="B121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="3"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="3"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="3"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="3"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="3"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="3"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="3"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="3"/>
+      <c r="B129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="3"/>
+      <c r="B130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="3"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="3"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="3"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="3"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="3"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="3"/>
+      <c r="B136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="3"/>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="3"/>
+      <c r="B138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="3"/>
+      <c r="B139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="3"/>
+      <c r="B140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="3"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="3"/>
+      <c r="B142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="3"/>
+      <c r="B143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="3"/>
+      <c r="B144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="3"/>
+      <c r="B145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="3"/>
+      <c r="B146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="3"/>
+      <c r="B147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="3"/>
+      <c r="B148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="3"/>
+      <c r="B149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="3"/>
+      <c r="B150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="3"/>
+      <c r="B151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="3"/>
+      <c r="B152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="3"/>
+      <c r="B153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="3"/>
+      <c r="B154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="3"/>
+      <c r="B155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="3"/>
+      <c r="B156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="3"/>
+      <c r="B157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="3"/>
+      <c r="B158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="3"/>
+      <c r="B159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="3"/>
+      <c r="B160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="3"/>
+      <c r="B161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="3"/>
+      <c r="B162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="3"/>
+      <c r="B163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="3"/>
+      <c r="B164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="3"/>
+      <c r="B165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="3"/>
+      <c r="B166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="3"/>
+      <c r="B167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="3"/>
+      <c r="B168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="3"/>
+      <c r="B169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="3"/>
+      <c r="B170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="3"/>
+      <c r="B171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="3"/>
+      <c r="B172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="3"/>
+      <c r="B173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="3"/>
+      <c r="B174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="3"/>
+      <c r="B175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="3"/>
+      <c r="B176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="3"/>
+      <c r="B177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="3"/>
+      <c r="B178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="3"/>
+      <c r="B179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="3"/>
+      <c r="B180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="3"/>
+      <c r="B181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="3"/>
+      <c r="B182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="3"/>
+      <c r="B183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="3"/>
+      <c r="B184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="3"/>
+      <c r="B185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="3"/>
+      <c r="B186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="3"/>
+      <c r="B187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="3"/>
+      <c r="B188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="3"/>
+      <c r="B189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="3"/>
+      <c r="B190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="3"/>
+      <c r="B191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="3"/>
+      <c r="B192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="3"/>
+      <c r="B193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="3"/>
+      <c r="B194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="3"/>
+      <c r="B195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="3"/>
+      <c r="B196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="3"/>
+      <c r="B197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="3"/>
+      <c r="B198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="3"/>
+      <c r="B199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="3"/>
+      <c r="B200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B201" s="3"/>
+      <c r="B201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="3"/>
+      <c r="B202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="3"/>
+      <c r="B203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="3"/>
+      <c r="B204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="3"/>
+      <c r="B205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="3"/>
+      <c r="B206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="3"/>
+      <c r="B207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="3"/>
+      <c r="B208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B209" s="3"/>
+      <c r="B209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B210" s="3"/>
+      <c r="B210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B211" s="3"/>
+      <c r="B211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B212" s="3"/>
+      <c r="B212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B213" s="3"/>
+      <c r="B213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B214" s="3"/>
+      <c r="B214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B215" s="3"/>
+      <c r="B215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B216" s="3"/>
+      <c r="B216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B217" s="3"/>
+      <c r="B217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B218" s="3"/>
+      <c r="B218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B219" s="3"/>
+      <c r="B219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B220" s="3"/>
+      <c r="B220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B221" s="3"/>
+      <c r="B221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B222" s="3"/>
+      <c r="B222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B223" s="3"/>
+      <c r="B223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="3"/>
+      <c r="B224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B225" s="3"/>
+      <c r="B225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B226" s="3"/>
+      <c r="B226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B227" s="3"/>
+      <c r="B227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B228" s="3"/>
+      <c r="B228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B229" s="3"/>
+      <c r="B229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B230" s="3"/>
+      <c r="B230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B231" s="3"/>
+      <c r="B231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B232" s="3"/>
+      <c r="B232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B233" s="3"/>
+      <c r="B233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B234" s="3"/>
+      <c r="B234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B235" s="3"/>
+      <c r="B235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B236" s="3"/>
+      <c r="B236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B237" s="3"/>
+      <c r="B237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B238" s="3"/>
+      <c r="B238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B239" s="3"/>
+      <c r="B239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B240" s="3"/>
+      <c r="B240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B241" s="3"/>
+      <c r="B241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B242" s="3"/>
+      <c r="B242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B243" s="3"/>
+      <c r="B243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B244" s="3"/>
+      <c r="B244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B245" s="3"/>
+      <c r="B245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B246" s="3"/>
+      <c r="B246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B247" s="3"/>
+      <c r="B247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B248" s="3"/>
+      <c r="B248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B249" s="3"/>
+      <c r="B249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B250" s="3"/>
+      <c r="B250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B251" s="3"/>
+      <c r="B251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B252" s="3"/>
+      <c r="B252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B253" s="3"/>
+      <c r="B253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B254" s="3"/>
+      <c r="B254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B255" s="3"/>
+      <c r="B255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B256" s="3"/>
+      <c r="B256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B257" s="3"/>
+      <c r="B257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B258" s="3"/>
+      <c r="B258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B259" s="3"/>
+      <c r="B259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B260" s="3"/>
+      <c r="B260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B261" s="3"/>
+      <c r="B261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B262" s="3"/>
+      <c r="B262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B263" s="3"/>
+      <c r="B263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B264" s="3"/>
+      <c r="B264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B265" s="3"/>
+      <c r="B265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B266" s="3"/>
+      <c r="B266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B267" s="3"/>
+      <c r="B267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B268" s="3"/>
+      <c r="B268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B269" s="3"/>
+      <c r="B269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B270" s="3"/>
+      <c r="B270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B271" s="3"/>
+      <c r="B271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B272" s="3"/>
+      <c r="B272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B273" s="3"/>
+      <c r="B273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B274" s="3"/>
+      <c r="B274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B275" s="3"/>
+      <c r="B275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B276" s="3"/>
+      <c r="B276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B277" s="3"/>
+      <c r="B277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B278" s="3"/>
+      <c r="B278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B279" s="3"/>
+      <c r="B279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B280" s="3"/>
+      <c r="B280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B281" s="3"/>
+      <c r="B281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B282" s="3"/>
+      <c r="B282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B283" s="3"/>
+      <c r="B283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B284" s="3"/>
+      <c r="B284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B285" s="3"/>
+      <c r="B285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B286" s="3"/>
+      <c r="B286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B287" s="3"/>
+      <c r="B287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B288" s="3"/>
+      <c r="B288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B289" s="3"/>
+      <c r="B289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B290" s="3"/>
+      <c r="B290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B291" s="3"/>
+      <c r="B291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B292" s="3"/>
+      <c r="B292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B293" s="3"/>
+      <c r="B293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B294" s="3"/>
+      <c r="B294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B295" s="3"/>
+      <c r="B295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B296" s="3"/>
+      <c r="B296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B297" s="3"/>
+      <c r="B297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B298" s="3"/>
+      <c r="B298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B299" s="3"/>
+      <c r="B299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B300" s="3"/>
+      <c r="B300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B301" s="3"/>
+      <c r="B301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B302" s="3"/>
+      <c r="B302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B303" s="3"/>
+      <c r="B303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B304" s="3"/>
+      <c r="B304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B305" s="3"/>
+      <c r="B305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B306" s="3"/>
+      <c r="B306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B307" s="3"/>
+      <c r="B307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B308" s="3"/>
+      <c r="B308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B309" s="3"/>
+      <c r="B309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B310" s="3"/>
+      <c r="B310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B311" s="3"/>
+      <c r="B311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B312" s="3"/>
+      <c r="B312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B313" s="3"/>
+      <c r="B313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B314" s="3"/>
+      <c r="B314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B315" s="3"/>
+      <c r="B315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B316" s="3"/>
+      <c r="B316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B317" s="3"/>
+      <c r="B317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B318" s="3"/>
+      <c r="B318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B319" s="3"/>
+      <c r="B319" s="6"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B320" s="3"/>
+      <c r="B320" s="6"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B321" s="3"/>
+      <c r="B321" s="6"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B322" s="3"/>
+      <c r="B322" s="6"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B323" s="3"/>
+      <c r="B323" s="6"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B324" s="3"/>
+      <c r="B324" s="6"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B325" s="3"/>
+      <c r="B325" s="6"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B326" s="3"/>
+      <c r="B326" s="6"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B327" s="3"/>
+      <c r="B327" s="6"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B328" s="3"/>
+      <c r="B328" s="6"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B329" s="3"/>
+      <c r="B329" s="6"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B330" s="3"/>
+      <c r="B330" s="6"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B331" s="3"/>
+      <c r="B331" s="6"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B332" s="3"/>
+      <c r="B332" s="6"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B333" s="3"/>
+      <c r="B333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B334" s="3"/>
+      <c r="B334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B335" s="3"/>
+      <c r="B335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B336" s="3"/>
+      <c r="B336" s="6"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B337" s="3"/>
+      <c r="B337" s="6"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B338" s="3"/>
+      <c r="B338" s="6"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B339" s="3"/>
+      <c r="B339" s="6"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B340" s="3"/>
+      <c r="B340" s="6"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B341" s="3"/>
+      <c r="B341" s="6"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B342" s="3"/>
+      <c r="B342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B343" s="3"/>
+      <c r="B343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B344" s="3"/>
+      <c r="B344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B345" s="3"/>
+      <c r="B345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B346" s="3"/>
+      <c r="B346" s="6"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B347" s="3"/>
+      <c r="B347" s="6"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B348" s="3"/>
+      <c r="B348" s="6"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B349" s="3"/>
+      <c r="B349" s="6"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B350" s="3"/>
+      <c r="B350" s="6"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B351" s="3"/>
+      <c r="B351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B352" s="3"/>
+      <c r="B352" s="6"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B353" s="3"/>
+      <c r="B353" s="6"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B354" s="3"/>
+      <c r="B354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B355" s="3"/>
+      <c r="B355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B356" s="3"/>
+      <c r="B356" s="6"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B357" s="3"/>
+      <c r="B357" s="6"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B358" s="3"/>
+      <c r="B358" s="6"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B359" s="3"/>
+      <c r="B359" s="6"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B360" s="3"/>
+      <c r="B360" s="6"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B361" s="3"/>
+      <c r="B361" s="6"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B362" s="3"/>
+      <c r="B362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B363" s="3"/>
+      <c r="B363" s="6"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B364" s="3"/>
+      <c r="B364" s="6"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B365" s="3"/>
+      <c r="B365" s="6"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B366" s="3"/>
+      <c r="B366" s="6"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B367" s="3"/>
+      <c r="B367" s="6"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B368" s="3"/>
+      <c r="B368" s="6"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B369" s="3"/>
+      <c r="B369" s="6"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B370" s="3"/>
+      <c r="B370" s="6"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B371" s="3"/>
+      <c r="B371" s="6"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B372" s="3"/>
+      <c r="B372" s="6"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B373" s="3"/>
+      <c r="B373" s="6"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B374" s="3"/>
+      <c r="B374" s="6"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B375" s="3"/>
+      <c r="B375" s="6"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B376" s="3"/>
+      <c r="B376" s="6"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B377" s="3"/>
+      <c r="B377" s="6"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B378" s="3"/>
+      <c r="B378" s="6"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B379" s="3"/>
+      <c r="B379" s="6"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B380" s="3"/>
+      <c r="B380" s="6"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B381" s="3"/>
+      <c r="B381" s="6"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B382" s="3"/>
+      <c r="B382" s="6"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B383" s="3"/>
+      <c r="B383" s="6"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B384" s="3"/>
+      <c r="B384" s="6"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B385" s="3"/>
+      <c r="B385" s="6"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B386" s="3"/>
+      <c r="B386" s="6"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B387" s="3"/>
+      <c r="B387" s="6"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B388" s="3"/>
+      <c r="B388" s="6"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B389" s="3"/>
+      <c r="B389" s="6"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B390" s="3"/>
+      <c r="B390" s="6"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B391" s="3"/>
+      <c r="B391" s="6"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B392" s="3"/>
+      <c r="B392" s="6"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B393" s="3"/>
+      <c r="B393" s="6"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B394" s="3"/>
+      <c r="B394" s="6"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B395" s="3"/>
+      <c r="B395" s="6"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B396" s="3"/>
+      <c r="B396" s="6"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B397" s="3"/>
+      <c r="B397" s="6"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B398" s="3"/>
+      <c r="B398" s="6"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B399" s="3"/>
+      <c r="B399" s="6"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B400" s="3"/>
+      <c r="B400" s="6"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B401" s="3"/>
+      <c r="B401" s="6"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B402" s="3"/>
+      <c r="B402" s="6"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B403" s="3"/>
+      <c r="B403" s="6"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B404" s="3"/>
+      <c r="B404" s="6"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B405" s="3"/>
+      <c r="B405" s="6"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B406" s="3"/>
+      <c r="B406" s="6"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B407" s="3"/>
+      <c r="B407" s="6"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B408" s="3"/>
+      <c r="B408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B409" s="3"/>
+      <c r="B409" s="6"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B410" s="3"/>
+      <c r="B410" s="6"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B411" s="3"/>
+      <c r="B411" s="6"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B412" s="3"/>
+      <c r="B412" s="6"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B413" s="3"/>
+      <c r="B413" s="6"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B414" s="3"/>
+      <c r="B414" s="6"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B415" s="3"/>
+      <c r="B415" s="6"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B416" s="3"/>
+      <c r="B416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B417" s="3"/>
+      <c r="B417" s="6"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B418" s="3"/>
+      <c r="B418" s="6"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B419" s="3"/>
+      <c r="B419" s="6"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B420" s="3"/>
+      <c r="B420" s="6"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B421" s="3"/>
+      <c r="B421" s="6"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B422" s="3"/>
+      <c r="B422" s="6"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B423" s="3"/>
+      <c r="B423" s="6"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B424" s="3"/>
+      <c r="B424" s="6"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B425" s="3"/>
+      <c r="B425" s="6"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B426" s="3"/>
+      <c r="B426" s="6"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B427" s="3"/>
+      <c r="B427" s="6"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B428" s="3"/>
+      <c r="B428" s="6"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B429" s="3"/>
+      <c r="B429" s="6"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B430" s="3"/>
+      <c r="B430" s="6"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B431" s="3"/>
+      <c r="B431" s="6"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B432" s="3"/>
+      <c r="B432" s="6"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B433" s="3"/>
+      <c r="B433" s="6"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B434" s="3"/>
+      <c r="B434" s="6"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B435" s="3"/>
+      <c r="B435" s="6"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B436" s="3"/>
+      <c r="B436" s="6"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B437" s="3"/>
+      <c r="B437" s="6"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B438" s="3"/>
+      <c r="B438" s="6"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B439" s="3"/>
+      <c r="B439" s="6"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B440" s="3"/>
+      <c r="B440" s="6"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B441" s="3"/>
+      <c r="B441" s="6"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B442" s="3"/>
+      <c r="B442" s="6"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B443" s="3"/>
+      <c r="B443" s="6"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B444" s="3"/>
+      <c r="B444" s="6"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B445" s="3"/>
+      <c r="B445" s="6"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B446" s="3"/>
+      <c r="B446" s="6"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B447" s="3"/>
+      <c r="B447" s="6"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B448" s="3"/>
+      <c r="B448" s="6"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B449" s="3"/>
+      <c r="B449" s="6"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B450" s="3"/>
+      <c r="B450" s="6"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B451" s="3"/>
+      <c r="B451" s="6"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B452" s="3"/>
+      <c r="B452" s="6"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B453" s="3"/>
+      <c r="B453" s="6"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B454" s="3"/>
+      <c r="B454" s="6"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B455" s="3"/>
+      <c r="B455" s="6"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B456" s="3"/>
+      <c r="B456" s="6"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B457" s="3"/>
+      <c r="B457" s="6"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B458" s="3"/>
+      <c r="B458" s="6"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B459" s="3"/>
+      <c r="B459" s="6"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B460" s="3"/>
+      <c r="B460" s="6"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B461" s="3"/>
+      <c r="B461" s="6"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B462" s="3"/>
+      <c r="B462" s="6"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B463" s="3"/>
+      <c r="B463" s="6"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B464" s="3"/>
+      <c r="B464" s="6"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B465" s="3"/>
+      <c r="B465" s="6"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B466" s="3"/>
+      <c r="B466" s="6"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B467" s="3"/>
+      <c r="B467" s="6"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B468" s="3"/>
+      <c r="B468" s="6"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B469" s="3"/>
+      <c r="B469" s="6"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B470" s="3"/>
+      <c r="B470" s="6"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B471" s="3"/>
+      <c r="B471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B472" s="3"/>
+      <c r="B472" s="6"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B473" s="3"/>
+      <c r="B473" s="6"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B474" s="3"/>
+      <c r="B474" s="6"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B475" s="3"/>
+      <c r="B475" s="6"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B476" s="3"/>
+      <c r="B476" s="6"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B477" s="3"/>
+      <c r="B477" s="6"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B478" s="3"/>
+      <c r="B478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B479" s="3"/>
+      <c r="B479" s="6"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B480" s="3"/>
+      <c r="B480" s="6"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B481" s="3"/>
+      <c r="B481" s="6"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B482" s="3"/>
+      <c r="B482" s="6"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B483" s="3"/>
+      <c r="B483" s="6"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B484" s="3"/>
+      <c r="B484" s="6"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B485" s="3"/>
+      <c r="B485" s="6"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B486" s="3"/>
+      <c r="B486" s="6"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B487" s="3"/>
+      <c r="B487" s="6"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B488" s="3"/>
+      <c r="B488" s="6"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B489" s="3"/>
+      <c r="B489" s="6"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B490" s="3"/>
+      <c r="B490" s="6"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B491" s="3"/>
+      <c r="B491" s="6"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B492" s="3"/>
+      <c r="B492" s="6"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B493" s="3"/>
+      <c r="B493" s="6"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B494" s="3"/>
+      <c r="B494" s="6"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B495" s="3"/>
+      <c r="B495" s="6"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B496" s="3"/>
+      <c r="B496" s="6"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B497" s="3"/>
+      <c r="B497" s="6"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B498" s="3"/>
+      <c r="B498" s="6"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B499" s="3"/>
+      <c r="B499" s="6"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B500" s="3"/>
+      <c r="B500" s="6"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B501" s="3"/>
+      <c r="B501" s="6"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B502" s="3"/>
+      <c r="B502" s="6"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B503" s="3"/>
+      <c r="B503" s="6"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B504" s="3"/>
+      <c r="B504" s="6"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B505" s="3"/>
+      <c r="B505" s="6"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B506" s="3"/>
+      <c r="B506" s="6"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B507" s="3"/>
+      <c r="B507" s="6"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B508" s="3"/>
+      <c r="B508" s="6"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B509" s="3"/>
+      <c r="B509" s="6"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B510" s="3"/>
+      <c r="B510" s="6"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B511" s="3"/>
+      <c r="B511" s="6"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B512" s="3"/>
+      <c r="B512" s="6"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B513" s="3"/>
+      <c r="B513" s="6"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B514" s="3"/>
+      <c r="B514" s="6"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B515" s="3"/>
+      <c r="B515" s="6"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B516" s="3"/>
+      <c r="B516" s="6"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B517" s="3"/>
+      <c r="B517" s="6"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B518" s="3"/>
+      <c r="B518" s="6"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B519" s="3"/>
+      <c r="B519" s="6"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B520" s="3"/>
+      <c r="B520" s="6"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B521" s="3"/>
+      <c r="B521" s="6"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B522" s="3"/>
+      <c r="B522" s="6"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B523" s="3"/>
+      <c r="B523" s="6"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B524" s="3"/>
+      <c r="B524" s="6"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B525" s="3"/>
+      <c r="B525" s="6"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B526" s="3"/>
+      <c r="B526" s="6"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B527" s="3"/>
+      <c r="B527" s="6"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B528" s="3"/>
+      <c r="B528" s="6"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B529" s="3"/>
+      <c r="B529" s="6"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B530" s="3"/>
+      <c r="B530" s="6"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B531" s="3"/>
+      <c r="B531" s="6"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B532" s="3"/>
+      <c r="B532" s="6"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B533" s="3"/>
+      <c r="B533" s="6"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B534" s="3"/>
+      <c r="B534" s="6"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B535" s="3"/>
+      <c r="B535" s="6"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B536" s="3"/>
+      <c r="B536" s="6"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B537" s="3"/>
+      <c r="B537" s="6"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B538" s="3"/>
+      <c r="B538" s="6"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B539" s="3"/>
+      <c r="B539" s="6"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B540" s="3"/>
+      <c r="B540" s="6"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B541" s="3"/>
+      <c r="B541" s="6"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B542" s="3"/>
+      <c r="B542" s="6"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B543" s="3"/>
+      <c r="B543" s="6"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B544" s="3"/>
+      <c r="B544" s="6"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B545" s="3"/>
+      <c r="B545" s="6"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B546" s="3"/>
+      <c r="B546" s="6"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B547" s="3"/>
+      <c r="B547" s="6"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B548" s="3"/>
+      <c r="B548" s="6"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B549" s="3"/>
+      <c r="B549" s="6"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B550" s="3"/>
+      <c r="B550" s="6"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B551" s="3"/>
+      <c r="B551" s="6"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B552" s="3"/>
+      <c r="B552" s="6"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B553" s="3"/>
+      <c r="B553" s="6"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B554" s="3"/>
+      <c r="B554" s="6"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B555" s="3"/>
+      <c r="B555" s="6"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B556" s="3"/>
+      <c r="B556" s="6"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B557" s="3"/>
+      <c r="B557" s="6"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B558" s="3"/>
+      <c r="B558" s="6"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B559" s="3"/>
+      <c r="B559" s="6"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B560" s="3"/>
+      <c r="B560" s="6"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B561" s="3"/>
+      <c r="B561" s="6"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B562" s="3"/>
+      <c r="B562" s="6"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B563" s="3"/>
+      <c r="B563" s="6"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B564" s="3"/>
+      <c r="B564" s="6"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B565" s="3"/>
+      <c r="B565" s="6"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B566" s="3"/>
+      <c r="B566" s="6"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B567" s="3"/>
+      <c r="B567" s="6"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B568" s="3"/>
+      <c r="B568" s="6"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B569" s="3"/>
+      <c r="B569" s="6"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B570" s="3"/>
+      <c r="B570" s="6"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B571" s="3"/>
+      <c r="B571" s="6"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B572" s="3"/>
+      <c r="B572" s="6"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B573" s="3"/>
+      <c r="B573" s="6"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B574" s="3"/>
+      <c r="B574" s="6"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B575" s="3"/>
+      <c r="B575" s="6"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B576" s="3"/>
+      <c r="B576" s="6"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B577" s="3"/>
+      <c r="B577" s="6"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B578" s="3"/>
+      <c r="B578" s="6"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B579" s="3"/>
+      <c r="B579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B580" s="3"/>
+      <c r="B580" s="6"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B581" s="3"/>
+      <c r="B581" s="6"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B582" s="3"/>
+      <c r="B582" s="6"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B583" s="3"/>
+      <c r="B583" s="6"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B584" s="3"/>
+      <c r="B584" s="6"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B585" s="3"/>
+      <c r="B585" s="6"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B586" s="3"/>
+      <c r="B586" s="6"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B587" s="3"/>
+      <c r="B587" s="6"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B588" s="3"/>
+      <c r="B588" s="6"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B589" s="3"/>
+      <c r="B589" s="6"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B590" s="3"/>
+      <c r="B590" s="6"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B591" s="3"/>
+      <c r="B591" s="6"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B592" s="3"/>
+      <c r="B592" s="6"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B593" s="3"/>
+      <c r="B593" s="6"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B594" s="3"/>
+      <c r="B594" s="6"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B595" s="3"/>
+      <c r="B595" s="6"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B596" s="3"/>
+      <c r="B596" s="6"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B597" s="3"/>
+      <c r="B597" s="6"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B598" s="3"/>
+      <c r="B598" s="6"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B599" s="3"/>
+      <c r="B599" s="6"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B600" s="3"/>
+      <c r="B600" s="6"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B601" s="3"/>
+      <c r="B601" s="6"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B602" s="3"/>
+      <c r="B602" s="6"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B603" s="3"/>
+      <c r="B603" s="6"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B604" s="3"/>
+      <c r="B604" s="6"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B605" s="3"/>
+      <c r="B605" s="6"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B606" s="3"/>
+      <c r="B606" s="6"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B607" s="3"/>
+      <c r="B607" s="6"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B608" s="3"/>
+      <c r="B608" s="6"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B609" s="3"/>
+      <c r="B609" s="6"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B610" s="3"/>
+      <c r="B610" s="6"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B611" s="3"/>
+      <c r="B611" s="6"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B612" s="3"/>
+      <c r="B612" s="6"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B613" s="3"/>
+      <c r="B613" s="6"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B614" s="3"/>
+      <c r="B614" s="6"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B615" s="3"/>
+      <c r="B615" s="6"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B616" s="3"/>
+      <c r="B616" s="6"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B617" s="3"/>
+      <c r="B617" s="6"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B618" s="3"/>
+      <c r="B618" s="6"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B619" s="3"/>
+      <c r="B619" s="6"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B620" s="3"/>
+      <c r="B620" s="6"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B621" s="3"/>
+      <c r="B621" s="6"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B622" s="3"/>
+      <c r="B622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B623" s="3"/>
+      <c r="B623" s="6"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B624" s="3"/>
+      <c r="B624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B625" s="3"/>
+      <c r="B625" s="6"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B626" s="3"/>
+      <c r="B626" s="6"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B627" s="3"/>
+      <c r="B627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B628" s="3"/>
+      <c r="B628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B629" s="3"/>
+      <c r="B629" s="6"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B630" s="3"/>
+      <c r="B630" s="6"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B631" s="3"/>
+      <c r="B631" s="6"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B632" s="3"/>
+      <c r="B632" s="6"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B633" s="3"/>
+      <c r="B633" s="6"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B634" s="3"/>
+      <c r="B634" s="6"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B635" s="3"/>
+      <c r="B635" s="6"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B636" s="3"/>
+      <c r="B636" s="6"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B637" s="3"/>
+      <c r="B637" s="6"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B638" s="3"/>
+      <c r="B638" s="6"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B639" s="3"/>
+      <c r="B639" s="6"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B640" s="3"/>
+      <c r="B640" s="6"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B641" s="3"/>
+      <c r="B641" s="6"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B642" s="3"/>
+      <c r="B642" s="6"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B643" s="3"/>
+      <c r="B643" s="6"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B644" s="3"/>
+      <c r="B644" s="6"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B645" s="3"/>
+      <c r="B645" s="6"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B646" s="3"/>
+      <c r="B646" s="6"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B647" s="3"/>
+      <c r="B647" s="6"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B648" s="3"/>
+      <c r="B648" s="6"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B649" s="3"/>
+      <c r="B649" s="6"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B650" s="3"/>
+      <c r="B650" s="6"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B651" s="3"/>
+      <c r="B651" s="6"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B652" s="3"/>
+      <c r="B652" s="6"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B653" s="3"/>
+      <c r="B653" s="6"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B654" s="3"/>
+      <c r="B654" s="6"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B655" s="3"/>
+      <c r="B655" s="6"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B656" s="3"/>
+      <c r="B656" s="6"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B657" s="3"/>
+      <c r="B657" s="6"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B658" s="3"/>
+      <c r="B658" s="6"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B659" s="3"/>
+      <c r="B659" s="6"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B660" s="3"/>
+      <c r="B660" s="6"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B661" s="3"/>
+      <c r="B661" s="6"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B662" s="3"/>
+      <c r="B662" s="6"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B663" s="3"/>
+      <c r="B663" s="6"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B664" s="3"/>
+      <c r="B664" s="6"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B665" s="3"/>
+      <c r="B665" s="6"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B666" s="3"/>
+      <c r="B666" s="6"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B667" s="3"/>
+      <c r="B667" s="6"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B668" s="3"/>
+      <c r="B668" s="6"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B669" s="3"/>
+      <c r="B669" s="6"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B670" s="3"/>
+      <c r="B670" s="6"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B671" s="3"/>
+      <c r="B671" s="6"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B672" s="3"/>
+      <c r="B672" s="6"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B673" s="3"/>
+      <c r="B673" s="6"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B674" s="3"/>
+      <c r="B674" s="6"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B675" s="3"/>
+      <c r="B675" s="6"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B676" s="3"/>
+      <c r="B676" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B677" s="3"/>
+      <c r="B677" s="6"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B678" s="3"/>
+      <c r="B678" s="6"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B679" s="3"/>
+      <c r="B679" s="6"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B680" s="3"/>
+      <c r="B680" s="6"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B681" s="3"/>
+      <c r="B681" s="6"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B682" s="3"/>
+      <c r="B682" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B683" s="3"/>
+      <c r="B683" s="6"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B684" s="3"/>
+      <c r="B684" s="6"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B685" s="3"/>
+      <c r="B685" s="6"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B686" s="3"/>
+      <c r="B686" s="6"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B687" s="3"/>
+      <c r="B687" s="6"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B688" s="3"/>
+      <c r="B688" s="6"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B689" s="3"/>
+      <c r="B689" s="6"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B690" s="3"/>
+      <c r="B690" s="6"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B691" s="3"/>
+      <c r="B691" s="6"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B692" s="3"/>
+      <c r="B692" s="6"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B693" s="3"/>
+      <c r="B693" s="6"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B694" s="3"/>
+      <c r="B694" s="6"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B695" s="3"/>
+      <c r="B695" s="6"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B696" s="3"/>
+      <c r="B696" s="6"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B697" s="3"/>
+      <c r="B697" s="6"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B698" s="3"/>
+      <c r="B698" s="6"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B699" s="3"/>
+      <c r="B699" s="6"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B700" s="3"/>
+      <c r="B700" s="6"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B701" s="3"/>
+      <c r="B701" s="6"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B702" s="3"/>
+      <c r="B702" s="6"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B703" s="3"/>
+      <c r="B703" s="6"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B704" s="3"/>
+      <c r="B704" s="6"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B705" s="3"/>
+      <c r="B705" s="6"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B706" s="3"/>
+      <c r="B706" s="6"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B707" s="3"/>
+      <c r="B707" s="6"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B708" s="3"/>
+      <c r="B708" s="6"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B709" s="3"/>
+      <c r="B709" s="6"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B710" s="3"/>
+      <c r="B710" s="6"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B711" s="3"/>
+      <c r="B711" s="6"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B712" s="3"/>
+      <c r="B712" s="6"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B713" s="3"/>
+      <c r="B713" s="6"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B714" s="3"/>
+      <c r="B714" s="6"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B715" s="3"/>
+      <c r="B715" s="6"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B716" s="3"/>
+      <c r="B716" s="6"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B717" s="3"/>
+      <c r="B717" s="6"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B718" s="3"/>
+      <c r="B718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B719" s="3"/>
+      <c r="B719" s="6"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B720" s="3"/>
+      <c r="B720" s="6"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B721" s="3"/>
+      <c r="B721" s="6"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B722" s="3"/>
+      <c r="B722" s="6"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B723" s="3"/>
+      <c r="B723" s="6"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B724" s="3"/>
+      <c r="B724" s="6"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B725" s="3"/>
+      <c r="B725" s="6"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B726" s="3"/>
+      <c r="B726" s="6"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B727" s="3"/>
+      <c r="B727" s="6"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B728" s="3"/>
+      <c r="B728" s="6"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B729" s="3"/>
+      <c r="B729" s="6"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B730" s="3"/>
+      <c r="B730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B731" s="3"/>
+      <c r="B731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B732" s="3"/>
+      <c r="B732" s="6"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B733" s="3"/>
+      <c r="B733" s="6"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B734" s="3"/>
+      <c r="B734" s="6"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B735" s="3"/>
+      <c r="B735" s="6"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B736" s="3"/>
+      <c r="B736" s="6"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B737" s="3"/>
+      <c r="B737" s="6"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B738" s="3"/>
+      <c r="B738" s="6"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B739" s="3"/>
+      <c r="B739" s="6"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B740" s="3"/>
+      <c r="B740" s="6"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B741" s="3"/>
+      <c r="B741" s="6"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B742" s="3"/>
+      <c r="B742" s="6"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B743" s="3"/>
+      <c r="B743" s="6"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B744" s="3"/>
+      <c r="B744" s="6"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B745" s="3"/>
+      <c r="B745" s="6"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B746" s="3"/>
+      <c r="B746" s="6"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B747" s="3"/>
+      <c r="B747" s="6"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B748" s="3"/>
+      <c r="B748" s="6"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B749" s="3"/>
+      <c r="B749" s="6"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B750" s="3"/>
+      <c r="B750" s="6"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B751" s="3"/>
+      <c r="B751" s="6"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B752" s="3"/>
+      <c r="B752" s="6"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B753" s="3"/>
+      <c r="B753" s="6"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B754" s="3"/>
+      <c r="B754" s="6"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B755" s="3"/>
+      <c r="B755" s="6"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B756" s="3"/>
+      <c r="B756" s="6"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B757" s="3"/>
+      <c r="B757" s="6"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B758" s="3"/>
+      <c r="B758" s="6"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B759" s="3"/>
+      <c r="B759" s="6"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B760" s="3"/>
+      <c r="B760" s="6"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B761" s="3"/>
+      <c r="B761" s="6"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B762" s="3"/>
+      <c r="B762" s="6"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B763" s="3"/>
+      <c r="B763" s="6"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B764" s="3"/>
+      <c r="B764" s="6"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B765" s="3"/>
+      <c r="B765" s="6"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B766" s="3"/>
+      <c r="B766" s="6"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B767" s="3"/>
+      <c r="B767" s="6"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B768" s="3"/>
+      <c r="B768" s="6"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B769" s="3"/>
+      <c r="B769" s="6"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B770" s="3"/>
+      <c r="B770" s="6"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B771" s="3"/>
+      <c r="B771" s="6"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B772" s="3"/>
+      <c r="B772" s="6"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B773" s="3"/>
+      <c r="B773" s="6"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B774" s="3"/>
+      <c r="B774" s="6"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B775" s="3"/>
+      <c r="B775" s="6"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B776" s="3"/>
+      <c r="B776" s="6"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B777" s="3"/>
+      <c r="B777" s="6"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B778" s="3"/>
+      <c r="B778" s="6"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B779" s="3"/>
+      <c r="B779" s="6"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B780" s="3"/>
+      <c r="B780" s="6"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B781" s="3"/>
+      <c r="B781" s="6"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B782" s="3"/>
+      <c r="B782" s="6"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B783" s="3"/>
+      <c r="B783" s="6"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B784" s="3"/>
+      <c r="B784" s="6"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B785" s="3"/>
+      <c r="B785" s="6"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B786" s="3"/>
+      <c r="B786" s="6"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B787" s="3"/>
+      <c r="B787" s="6"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B788" s="3"/>
+      <c r="B788" s="6"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B789" s="3"/>
+      <c r="B789" s="6"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B790" s="3"/>
+      <c r="B790" s="6"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B791" s="3"/>
+      <c r="B791" s="6"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B792" s="3"/>
+      <c r="B792" s="6"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B793" s="3"/>
+      <c r="B793" s="6"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B794" s="3"/>
+      <c r="B794" s="6"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B795" s="3"/>
+      <c r="B795" s="6"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B796" s="3"/>
+      <c r="B796" s="6"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B797" s="3"/>
+      <c r="B797" s="6"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B798" s="3"/>
+      <c r="B798" s="6"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B799" s="3"/>
+      <c r="B799" s="6"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B800" s="3"/>
+      <c r="B800" s="6"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B801" s="3"/>
+      <c r="B801" s="6"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B802" s="3"/>
+      <c r="B802" s="6"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B803" s="3"/>
+      <c r="B803" s="6"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B804" s="3"/>
+      <c r="B804" s="6"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B805" s="3"/>
+      <c r="B805" s="6"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B806" s="3"/>
+      <c r="B806" s="6"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B807" s="3"/>
+      <c r="B807" s="6"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B808" s="3"/>
+      <c r="B808" s="6"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B809" s="3"/>
+      <c r="B809" s="6"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B810" s="3"/>
+      <c r="B810" s="6"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B811" s="3"/>
+      <c r="B811" s="6"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B812" s="3"/>
+      <c r="B812" s="6"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B813" s="3"/>
+      <c r="B813" s="6"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B814" s="3"/>
+      <c r="B814" s="6"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B815" s="3"/>
+      <c r="B815" s="6"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B816" s="3"/>
+      <c r="B816" s="6"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B817" s="3"/>
+      <c r="B817" s="6"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B818" s="3"/>
+      <c r="B818" s="6"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B819" s="3"/>
+      <c r="B819" s="6"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B820" s="3"/>
+      <c r="B820" s="6"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B821" s="3"/>
+      <c r="B821" s="6"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B822" s="3"/>
+      <c r="B822" s="6"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B823" s="3"/>
+      <c r="B823" s="6"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B824" s="3"/>
+      <c r="B824" s="6"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B825" s="3"/>
+      <c r="B825" s="6"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B826" s="3"/>
+      <c r="B826" s="6"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B827" s="3"/>
+      <c r="B827" s="6"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B828" s="3"/>
+      <c r="B828" s="6"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B829" s="3"/>
+      <c r="B829" s="6"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B830" s="3"/>
+      <c r="B830" s="6"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B831" s="3"/>
+      <c r="B831" s="6"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B832" s="3"/>
+      <c r="B832" s="6"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B833" s="3"/>
+      <c r="B833" s="6"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B834" s="3"/>
+      <c r="B834" s="6"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B835" s="3"/>
+      <c r="B835" s="6"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B836" s="3"/>
+      <c r="B836" s="6"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B837" s="3"/>
+      <c r="B837" s="6"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B838" s="3"/>
+      <c r="B838" s="6"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B839" s="3"/>
+      <c r="B839" s="6"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B840" s="3"/>
+      <c r="B840" s="6"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B841" s="3"/>
+      <c r="B841" s="6"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B842" s="3"/>
+      <c r="B842" s="6"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B843" s="3"/>
+      <c r="B843" s="6"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B844" s="3"/>
+      <c r="B844" s="6"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B845" s="3"/>
+      <c r="B845" s="6"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B846" s="3"/>
+      <c r="B846" s="6"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B847" s="3"/>
+      <c r="B847" s="6"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B848" s="3"/>
+      <c r="B848" s="6"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B849" s="3"/>
+      <c r="B849" s="6"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B850" s="3"/>
+      <c r="B850" s="6"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B851" s="3"/>
+      <c r="B851" s="6"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B852" s="3"/>
+      <c r="B852" s="6"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B853" s="3"/>
+      <c r="B853" s="6"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B854" s="3"/>
+      <c r="B854" s="6"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B855" s="3"/>
+      <c r="B855" s="6"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B856" s="3"/>
+      <c r="B856" s="6"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B857" s="3"/>
+      <c r="B857" s="6"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B858" s="3"/>
+      <c r="B858" s="6"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B859" s="3"/>
+      <c r="B859" s="6"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B860" s="3"/>
+      <c r="B860" s="6"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B861" s="3"/>
+      <c r="B861" s="6"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B862" s="3"/>
+      <c r="B862" s="6"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B863" s="3"/>
+      <c r="B863" s="6"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B864" s="3"/>
+      <c r="B864" s="6"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B865" s="3"/>
+      <c r="B865" s="6"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B866" s="3"/>
+      <c r="B866" s="6"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B867" s="3"/>
+      <c r="B867" s="6"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B868" s="3"/>
+      <c r="B868" s="6"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B869" s="3"/>
+      <c r="B869" s="6"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B870" s="3"/>
+      <c r="B870" s="6"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B871" s="3"/>
+      <c r="B871" s="6"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B872" s="3"/>
+      <c r="B872" s="6"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B873" s="3"/>
+      <c r="B873" s="6"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B874" s="3"/>
+      <c r="B874" s="6"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B875" s="3"/>
+      <c r="B875" s="6"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B876" s="3"/>
+      <c r="B876" s="6"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B877" s="3"/>
+      <c r="B877" s="6"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B878" s="3"/>
+      <c r="B878" s="6"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B879" s="3"/>
+      <c r="B879" s="6"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B880" s="3"/>
+      <c r="B880" s="6"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B881" s="3"/>
+      <c r="B881" s="6"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B882" s="3"/>
+      <c r="B882" s="6"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B883" s="3"/>
+      <c r="B883" s="6"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B884" s="3"/>
+      <c r="B884" s="6"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B885" s="3"/>
+      <c r="B885" s="6"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B886" s="3"/>
+      <c r="B886" s="6"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B887" s="3"/>
+      <c r="B887" s="6"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B888" s="3"/>
+      <c r="B888" s="6"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B889" s="3"/>
+      <c r="B889" s="6"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B890" s="3"/>
+      <c r="B890" s="6"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B891" s="3"/>
+      <c r="B891" s="6"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B892" s="3"/>
+      <c r="B892" s="6"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B893" s="3"/>
+      <c r="B893" s="6"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B894" s="3"/>
+      <c r="B894" s="6"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B895" s="3"/>
+      <c r="B895" s="6"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B896" s="3"/>
+      <c r="B896" s="6"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B897" s="3"/>
+      <c r="B897" s="6"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B898" s="3"/>
+      <c r="B898" s="6"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B899" s="3"/>
+      <c r="B899" s="6"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B900" s="3"/>
+      <c r="B900" s="6"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B901" s="3"/>
+      <c r="B901" s="6"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B902" s="3"/>
+      <c r="B902" s="6"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B903" s="3"/>
+      <c r="B903" s="6"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B904" s="3"/>
+      <c r="B904" s="6"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B905" s="3"/>
+      <c r="B905" s="6"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B906" s="3"/>
+      <c r="B906" s="6"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B907" s="3"/>
+      <c r="B907" s="6"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B908" s="3"/>
+      <c r="B908" s="6"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B909" s="3"/>
+      <c r="B909" s="6"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B910" s="3"/>
+      <c r="B910" s="6"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B911" s="3"/>
+      <c r="B911" s="6"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B912" s="3"/>
+      <c r="B912" s="6"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B913" s="3"/>
+      <c r="B913" s="6"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B914" s="3"/>
+      <c r="B914" s="6"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B915" s="3"/>
+      <c r="B915" s="6"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B916" s="3"/>
+      <c r="B916" s="6"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B917" s="3"/>
+      <c r="B917" s="6"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B918" s="3"/>
+      <c r="B918" s="6"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B919" s="3"/>
+      <c r="B919" s="6"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B920" s="3"/>
+      <c r="B920" s="6"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B921" s="3"/>
+      <c r="B921" s="6"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B922" s="3"/>
+      <c r="B922" s="6"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B923" s="3"/>
+      <c r="B923" s="6"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B924" s="3"/>
+      <c r="B924" s="6"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B925" s="3"/>
+      <c r="B925" s="6"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B926" s="3"/>
+      <c r="B926" s="6"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B927" s="3"/>
+      <c r="B927" s="6"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B928" s="3"/>
+      <c r="B928" s="6"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B929" s="3"/>
+      <c r="B929" s="6"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B930" s="3"/>
+      <c r="B930" s="6"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B931" s="3"/>
+      <c r="B931" s="6"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B932" s="3"/>
+      <c r="B932" s="6"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B933" s="3"/>
+      <c r="B933" s="6"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B934" s="3"/>
+      <c r="B934" s="6"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B935" s="3"/>
+      <c r="B935" s="6"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B936" s="3"/>
+      <c r="B936" s="6"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B937" s="3"/>
+      <c r="B937" s="6"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B938" s="3"/>
+      <c r="B938" s="6"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B939" s="3"/>
+      <c r="B939" s="6"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B940" s="3"/>
+      <c r="B940" s="6"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B941" s="3"/>
+      <c r="B941" s="6"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B942" s="3"/>
+      <c r="B942" s="6"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B943" s="3"/>
+      <c r="B943" s="6"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B944" s="3"/>
+      <c r="B944" s="6"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B945" s="3"/>
+      <c r="B945" s="6"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B946" s="3"/>
+      <c r="B946" s="6"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B947" s="3"/>
+      <c r="B947" s="6"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B948" s="3"/>
+      <c r="B948" s="6"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B949" s="3"/>
+      <c r="B949" s="6"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B950" s="3"/>
+      <c r="B950" s="6"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B951" s="3"/>
+      <c r="B951" s="6"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B952" s="3"/>
+      <c r="B952" s="6"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B953" s="3"/>
+      <c r="B953" s="6"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B954" s="3"/>
+      <c r="B954" s="6"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B955" s="3"/>
+      <c r="B955" s="6"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B956" s="3"/>
+      <c r="B956" s="6"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B957" s="3"/>
+      <c r="B957" s="6"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B958" s="3"/>
+      <c r="B958" s="6"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B959" s="3"/>
+      <c r="B959" s="6"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B960" s="3"/>
+      <c r="B960" s="6"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B961" s="3"/>
+      <c r="B961" s="6"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B962" s="3"/>
+      <c r="B962" s="6"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B963" s="3"/>
+      <c r="B963" s="6"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B964" s="3"/>
+      <c r="B964" s="6"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B965" s="3"/>
+      <c r="B965" s="6"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B966" s="3"/>
+      <c r="B966" s="6"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B967" s="3"/>
+      <c r="B967" s="6"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B968" s="3"/>
+      <c r="B968" s="6"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B969" s="3"/>
+      <c r="B969" s="6"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B970" s="3"/>
+      <c r="B970" s="6"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B971" s="3"/>
+      <c r="B971" s="6"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B972" s="3"/>
+      <c r="B972" s="6"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B973" s="3"/>
+      <c r="B973" s="6"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B974" s="3"/>
+      <c r="B974" s="6"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B975" s="3"/>
+      <c r="B975" s="6"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B976" s="3"/>
+      <c r="B976" s="6"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B977" s="3"/>
+      <c r="B977" s="6"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B978" s="3"/>
+      <c r="B978" s="6"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B979" s="3"/>
+      <c r="B979" s="6"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B980" s="3"/>
+      <c r="B980" s="6"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B981" s="3"/>
+      <c r="B981" s="6"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B982" s="3"/>
+      <c r="B982" s="6"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B983" s="3"/>
+      <c r="B983" s="6"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B984" s="3"/>
+      <c r="B984" s="6"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B985" s="3"/>
+      <c r="B985" s="6"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B986" s="3"/>
+      <c r="B986" s="6"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B987" s="3"/>
+      <c r="B987" s="6"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B988" s="3"/>
+      <c r="B988" s="6"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B989" s="3"/>
+      <c r="B989" s="6"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B990" s="3"/>
+      <c r="B990" s="6"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B991" s="3"/>
+      <c r="B991" s="6"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B992" s="3"/>
+      <c r="B992" s="6"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B993" s="3"/>
+      <c r="B993" s="6"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B994" s="3"/>
+      <c r="B994" s="6"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B995" s="3"/>
+      <c r="B995" s="6"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B996" s="3"/>
+      <c r="B996" s="6"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B997" s="3"/>
+      <c r="B997" s="6"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B998" s="3"/>
+      <c r="B998" s="6"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B999" s="3"/>
+      <c r="B999" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8496,53 +7882,53 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>475</v>
       </c>
     </row>
@@ -9551,25 +8937,25 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="4" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="5" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="4" style="5" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -9583,917 +8969,917 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>520</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="7" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>621</v>
       </c>
     </row>
@@ -11456,2952 +10842,4 @@
     <oddFooter>&amp;CffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F1000"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="4" style="0" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;Cffffff&amp;A</oddHeader>
-    <oddFooter>&amp;CffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>